--- a/Stat reports/wwwroot/docs/Подпись.xlsx
+++ b/Stat reports/wwwroot/docs/Подпись.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kerri\source\repos\Stat-reports_for3.1\Stat reports\wwwroot\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Stat reports\Stat reports\wwwroot\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{535B2A74-FEA6-4E64-8645-74858C778B96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E1C62E-F054-46A8-B662-DC9408D20749}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3465" yWindow="4065" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -66,8 +66,6 @@
     <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -89,51 +87,63 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -410,107 +420,101 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B139060-C0A1-4EE1-9964-4FF242E3F762}">
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:A8"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="75.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="43.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="82.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="F1" s="1" t="s">
+      <c r="D1" s="10"/>
+      <c r="F1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="I1" s="1" t="s">
+      <c r="G1" s="13"/>
+      <c r="I1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="1"/>
+      <c r="J1" s="12"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="C3" s="2" t="s">
+      <c r="A2" s="6"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="C3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="F3" s="2" t="s">
+      <c r="D3" s="14"/>
+      <c r="F3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="I3" s="5" t="s">
+      <c r="G3" s="14"/>
+      <c r="I3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="5"/>
+      <c r="J3" s="7"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
+      <c r="A5" s="1"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
+      <c r="A6" s="2"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
+      <c r="A8" s="6"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -521,10 +525,10 @@
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="C1:D2"/>
     <mergeCell ref="F1:G2"/>
-    <mergeCell ref="I1:J2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I1:J2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
